--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3212CC-FE49-4BC7-9EFD-92CF0D876939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC6C63-3316-4E7B-AB88-EBF398DD17AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="96">
   <si>
     <t>Detalle</t>
   </si>
@@ -229,6 +230,96 @@
   </si>
   <si>
     <t>Próxima revisión: 9 de abril</t>
+  </si>
+  <si>
+    <t>Cargar datos de prueba en la tabla.</t>
+  </si>
+  <si>
+    <t>Teléfono lleva acento en la E.</t>
+  </si>
+  <si>
+    <t>No está protegido contra campos vacíos.</t>
+  </si>
+  <si>
+    <t>El campo TELÉFONO no está validado, puedo agregar letras.</t>
+  </si>
+  <si>
+    <t>Eliminar empleado</t>
+  </si>
+  <si>
+    <t>El botón debe estar protegido en caso de que no seleccione ningún campo de la tabla, debe indicarme que debo seleccionar uno.</t>
+  </si>
+  <si>
+    <t>El botón ACEPTAR no hace nada.</t>
+  </si>
+  <si>
+    <t>El campo COSTO no está validado, puedo agregar letras.</t>
+  </si>
+  <si>
+    <t>Eliminar producto</t>
+  </si>
+  <si>
+    <t>El título de la ventana dice "Modificar producto".</t>
+  </si>
+  <si>
+    <t>El botón no hace nada.</t>
+  </si>
+  <si>
+    <t>No agrega.</t>
+  </si>
+  <si>
+    <t>Eliminar proveedor</t>
+  </si>
+  <si>
+    <t>No modifica.</t>
+  </si>
+  <si>
+    <t>Las tablas no tienen filtro.</t>
+  </si>
+  <si>
+    <t>En la primera tabla, en lugar de decir productos debería decir NOMBRE, y deberían agregar un título que indique que en esa tabla se enlistan los productos que se manejan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la segunda tabla, debería haber un título que nos diga que ahí van los productos en el carrito de compras. </t>
+  </si>
+  <si>
+    <t>En la segunda tabla, faltan los campos de precio, cantidad y subtotal, sin ellos, ¿cómo sé cuánto pago por cada cosa y cómo calculo el total?</t>
+  </si>
+  <si>
+    <t>Los botones no tienen diseño ni tooltip text.</t>
+  </si>
+  <si>
+    <t>El botón agregar no funciona.</t>
+  </si>
+  <si>
+    <t>El botón eliminar no funciona.</t>
+  </si>
+  <si>
+    <t>Ninguno de los dos botones está protegido en caso de que el usuario no seleccione nada.</t>
+  </si>
+  <si>
+    <t>¿Con qué botón guardo la venta?</t>
+  </si>
+  <si>
+    <t>El botón VER  me lleva a una interfaz donde me despliega la información de una venta en específico, pero, ¿de dónde saco esa venta esoecífica?</t>
+  </si>
+  <si>
+    <t>Ver ventas</t>
+  </si>
+  <si>
+    <t>El botón no sirve.</t>
+  </si>
+  <si>
+    <t>El título dice GUARDAR VENTAS.</t>
+  </si>
+  <si>
+    <t>Cantidad de observaciones:</t>
+  </si>
+  <si>
+    <t>Corregidas:</t>
+  </si>
+  <si>
+    <t>Calificación al momento:</t>
   </si>
 </sst>
 </file>
@@ -267,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -449,11 +540,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -500,7 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -508,12 +620,41 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -846,14 +987,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2"/>
     <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -901,13 +1043,13 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -935,7 +1077,7 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -949,7 +1091,7 @@
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -963,7 +1105,7 @@
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -977,7 +1119,7 @@
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -991,11 +1133,11 @@
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1005,7 +1147,7 @@
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1019,7 +1161,7 @@
       <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1033,7 +1175,7 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1047,7 +1189,7 @@
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -1061,7 +1203,7 @@
       <c r="B19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1075,7 +1217,7 @@
       <c r="B20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -1089,7 +1231,7 @@
       <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1103,7 +1245,7 @@
       <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1117,7 +1259,7 @@
       <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -1131,7 +1273,7 @@
       <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -1145,7 +1287,7 @@
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1159,7 +1301,7 @@
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -1173,7 +1315,7 @@
       <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -1187,7 +1329,7 @@
       <c r="B28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -1201,7 +1343,7 @@
       <c r="B29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -1215,7 +1357,7 @@
       <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -1229,7 +1371,7 @@
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -1243,7 +1385,7 @@
       <c r="B32" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -1257,7 +1399,7 @@
       <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -1271,7 +1413,7 @@
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -1285,7 +1427,7 @@
       <c r="B35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -1299,7 +1441,7 @@
       <c r="B36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -1313,7 +1455,7 @@
       <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -1327,7 +1469,7 @@
       <c r="B38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -1341,7 +1483,7 @@
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -1355,7 +1497,7 @@
       <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -1369,7 +1511,7 @@
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -1383,7 +1525,7 @@
       <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -1397,7 +1539,7 @@
       <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -1411,7 +1553,7 @@
       <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -1425,7 +1567,7 @@
       <c r="B45" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -1439,7 +1581,7 @@
       <c r="B46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -1453,7 +1595,7 @@
       <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -1467,82 +1609,102 @@
       <c r="B48" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51">
+        <f>COUNTIF(D8:D52,"Sí")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="23">
+        <f>G51/G50*10</f>
+        <v>0.44444444444444448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p46YIQZqtJnUFAZhYXkos+r9TAc2b7MnMd9okAl5eZiMvifk8RckltGHHu1UD3S2BMTLPpG7C3fD5mqnY4BstA==" saltValue="aj28O0XABFO8Jdkh8ew9Ow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TlCWETNRE7JjcUFjF3s3cqFDii/eqmiIvPUidie05BTkDohhndVLqGcmb5ScuSt/twfGuYqTmDxkO6jbrp7Z8A==" saltValue="AJM+NkIV7e+OiFqwk/FGaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
-      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1551,6 +1713,1622 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114">
+        <f>COUNTIF(D8:D115,"Sí")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>95</v>
+      </c>
+      <c r="G115" s="23">
+        <f>G114/G113*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="c008UrMuwocdKOhozixZW0u2Q9owt4uexI6XyiDHDIPtPexbGVXs4uREkOhDxu8RBfEQMm0HHQzteoWPuscNbg==" saltValue="/yeupQ7VEneLH8/xDneNjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D115">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D115" xr:uid="{F561AA05-8634-45D7-8FA4-FE667B162A57}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC6C63-3316-4E7B-AB88-EBF398DD17AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC3FD4-D060-4DE5-9ED7-694BCD8588B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="97">
   <si>
     <t>Detalle</t>
   </si>
@@ -320,6 +321,9 @@
   </si>
   <si>
     <t>Calificación al momento:</t>
+  </si>
+  <si>
+    <t>Próxima revisión: entre 30 de abril y 3 de mayo</t>
   </si>
 </sst>
 </file>
@@ -634,7 +638,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1700,10 +1724,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TlCWETNRE7JjcUFjF3s3cqFDii/eqmiIvPUidie05BTkDohhndVLqGcmb5ScuSt/twfGuYqTmDxkO6jbrp7Z8A==" saltValue="AJM+NkIV7e+OiFqwk/FGaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1721,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -3316,10 +3340,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="c008UrMuwocdKOhozixZW0u2Q9owt4uexI6XyiDHDIPtPexbGVXs4uREkOhDxu8RBfEQMm0HHQzteoWPuscNbg==" saltValue="/yeupQ7VEneLH8/xDneNjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3331,4 +3355,1620 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>93</v>
+      </c>
+      <c r="G113">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114">
+        <f>COUNTIF(D8:D115,"Sí")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>95</v>
+      </c>
+      <c r="G115" s="23">
+        <f>G114/G113*10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="C0VmbJ/1kTiCrKTQM9Kfi5RNVMhnmUDqAqAaTSc6WubHNK9OAphRtHK8DKkHdCRS5+hM1TFQBXLcFAIjtzxDvQ==" saltValue="Xbgc5xOSZ0bT3XLtovbBYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D115">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D115" xr:uid="{8934C7B7-26A8-4FD7-8936-9C46AE1085D3}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CC3FD4-D060-4DE5-9ED7-694BCD8588B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1895E52C-471F-4153-8D1B-349B99FB5625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
     <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Revisión 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="132">
   <si>
     <t>Detalle</t>
   </si>
@@ -324,6 +325,111 @@
   </si>
   <si>
     <t>Próxima revisión: entre 30 de abril y 3 de mayo</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Las librerías no tiene PATH relativo.</t>
+  </si>
+  <si>
+    <t>Su tooltiptext debe iniciar con una mayúscula.</t>
+  </si>
+  <si>
+    <t>El tooltiptext de SURTIDO dice PRODUCTOS.</t>
+  </si>
+  <si>
+    <t>El título de la ventana (el grande) debe ser en plurar.</t>
+  </si>
+  <si>
+    <t>El diálogo no debe tener la opción de cerrarse desde la ventana ya que si hago eso el programa no se termina, se queda corriendo en segundo plano.</t>
+  </si>
+  <si>
+    <t>El color de la letra debe ser el mismo para todo el sistema.</t>
+  </si>
+  <si>
+    <t>Únicamente lleva acento en la U.</t>
+  </si>
+  <si>
+    <t>Vacío lleva acento en la I.</t>
+  </si>
+  <si>
+    <t>Éxito lleva acento en la E.</t>
+  </si>
+  <si>
+    <t>Aún no elimina.</t>
+  </si>
+  <si>
+    <t>Falta validar. No está protegido contra campos vacíos.</t>
+  </si>
+  <si>
+    <t>Asegúrense de que todos los RadioButton tengan el mismo tamaño para que se vea estético.</t>
+  </si>
+  <si>
+    <t>Los botones no tienen tooltiptext.</t>
+  </si>
+  <si>
+    <t>Cuidado con el tamaño de la ventana, muestra partes en gris.</t>
+  </si>
+  <si>
+    <t>Debería decir ESTÁN, en lugar de ESTA.</t>
+  </si>
+  <si>
+    <t>El campo STOCK no está validado, puedo agregar letras.</t>
+  </si>
+  <si>
+    <t>Al regresar a la ventana principal no recarga la tabla automáticamente.</t>
+  </si>
+  <si>
+    <t>No se carga la tabla.</t>
+  </si>
+  <si>
+    <t>El ComboBox de TIPO carga a los proveedores.</t>
+  </si>
+  <si>
+    <t>El ComboBox de PROVEEDOR no carga nada.</t>
+  </si>
+  <si>
+    <t>La ventana no aparece completa.</t>
+  </si>
+  <si>
+    <t>No limpian los campos.</t>
+  </si>
+  <si>
+    <t>El título dice VER EMPLEADO.</t>
+  </si>
+  <si>
+    <t>Aún no funciona.</t>
+  </si>
+  <si>
+    <t>La segunda flecha pierde la imagen en la animación.</t>
+  </si>
+  <si>
+    <t>La tabla de productos no se carga.</t>
+  </si>
+  <si>
+    <t>El campo PAGO no está validado, puedo agregar letras.</t>
+  </si>
+  <si>
+    <t>La tabla ya no debe decir TITLE</t>
+  </si>
+  <si>
+    <t>Ver venta específica</t>
+  </si>
+  <si>
+    <t>Al dar clic en REGRESAR AL MENÚ  de la ventana VER VENTAS, el menú se deforma.</t>
+  </si>
+  <si>
+    <t>Surtido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la segunda tabla, debería haber un título que nos diga que ahí van los productos surtidos. </t>
+  </si>
+  <si>
+    <t>Ver surtidos</t>
+  </si>
+  <si>
+    <t>Ver surtidos específicos</t>
   </si>
 </sst>
 </file>
@@ -638,7 +744,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1011,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -1105,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1147,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1175,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1189,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -1231,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1245,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1259,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1273,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1287,7 +1413,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1301,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1315,7 +1441,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1329,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1343,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1357,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1371,7 +1497,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1385,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1399,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1413,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1511,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1525,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1539,7 +1665,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1553,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1595,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1609,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1637,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1665,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>93</v>
@@ -1685,14 +1811,14 @@
         <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>94</v>
       </c>
       <c r="G51">
         <f>COUNTIF(D8:D52,"Sí")</f>
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1713,7 +1839,7 @@
       </c>
       <c r="G52" s="23">
         <f>G51/G50*10</f>
-        <v>0.44444444444444448</v>
+        <v>6.8888888888888893</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,12 +1848,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TlCWETNRE7JjcUFjF3s3cqFDii/eqmiIvPUidie05BTkDohhndVLqGcmb5ScuSt/twfGuYqTmDxkO6jbrp7Z8A==" saltValue="AJM+NkIV7e+OiFqwk/FGaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+eN+9BxTNnhQffWJAMD4JL3ATrsxGlF0tMPbbWkf6mOoJsPjrw23so0FauY0L9GELnZIYLj/gY9oDlpm4xrnTA==" saltValue="T18lvD86dzYxncDZqYmCLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1746,7 +1872,7 @@
   <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A115" sqref="A115:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -1839,7 +1965,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1853,7 +1979,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1881,7 +2007,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1895,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1923,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1951,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1965,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1979,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1993,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2007,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2021,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2035,7 +2161,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2049,7 +2175,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2063,7 +2189,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2077,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2133,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2147,7 +2273,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2161,7 +2287,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2189,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2203,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2217,7 +2343,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2259,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2315,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2329,7 +2455,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2343,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2371,7 +2497,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2385,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2399,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2553,7 +2679,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2567,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2707,7 +2833,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2735,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2749,7 +2875,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2763,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2791,7 +2917,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2805,7 +2931,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2847,7 +2973,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2861,7 +2987,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2889,7 +3015,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2903,7 +3029,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2917,7 +3043,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2959,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2973,7 +3099,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3071,7 +3197,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3085,7 +3211,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3099,7 +3225,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3127,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -3253,7 +3379,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3267,7 +3393,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3281,7 +3407,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
         <v>93</v>
@@ -3301,14 +3427,14 @@
         <v>7</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F114" t="s">
         <v>94</v>
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3329,7 +3455,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>0</v>
+        <v>4.9074074074074074</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3338,12 +3464,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="c008UrMuwocdKOhozixZW0u2Q9owt4uexI6XyiDHDIPtPexbGVXs4uREkOhDxu8RBfEQMm0HHQzteoWPuscNbg==" saltValue="/yeupQ7VEneLH8/xDneNjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ft916Eyf+BnSbO2LCjiyVR3wY6TbrtQJubPx9nuYwtoqDeZrNxWgX/QEvaLmcRwDJ5DMmgZJBROu8CAseW7iBg==" saltValue="ln0NOIsJ4+HW/LyQrY0aUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3361,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,7 +3550,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -3455,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3469,7 +3595,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3497,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,7 +3637,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3525,7 +3651,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3539,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3567,7 +3693,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3581,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3595,7 +3721,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3609,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3623,7 +3749,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3637,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3651,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3665,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3679,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3693,7 +3819,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3749,7 +3875,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3763,7 +3889,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3777,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3805,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3819,7 +3945,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3833,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3875,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3931,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3945,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3959,7 +4085,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3987,7 +4113,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4001,7 +4127,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4015,7 +4141,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4169,7 +4295,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4183,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4323,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4351,7 +4477,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4365,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4379,7 +4505,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4407,7 +4533,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4421,7 +4547,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4463,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4477,7 +4603,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4505,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4519,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4533,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4687,7 +4813,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4701,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4715,7 +4841,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -4869,7 +4995,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,7 +5009,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4897,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
         <v>93</v>
@@ -4917,14 +5043,14 @@
         <v>7</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F114" t="s">
         <v>94</v>
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4945,7 +5071,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>0</v>
+        <v>4.7222222222222223</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,12 +5080,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="C0VmbJ/1kTiCrKTQM9Kfi5RNVMhnmUDqAqAaTSc6WubHNK9OAphRtHK8DKkHdCRS5+hM1TFQBXLcFAIjtzxDvQ==" saltValue="Xbgc5xOSZ0bT3XLtovbBYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/rK9DO5JGzTYyZ0+uFaFJnJkuwD5ztgePZf7BQTOAp4WiXi95QwcTFoD7oWt7qIjNuaY6zcqwJiWGD17U6pi9Q==" saltValue="dDUwBRc+S3aGhclxpJFeAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4971,4 +5097,1643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
+  <dimension ref="A1:K117"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116">
+        <f>COUNTIF(D8:D117,"Sí")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>95</v>
+      </c>
+      <c r="G117" s="23">
+        <f>G116/G115*10</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Ot1W62W+L9w0J9Vrj+2mgpyzSsqAR7cy3/YL7VQEI80uL+71IEZBNJ9imBzdUzznvlnaWYHsyUhVy6vuHt8sg==" saltValue="OQcAI1hNHxPNZ4YdWrylZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D117">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D117" xr:uid="{1AC06BA3-3C78-4DE6-B2E3-980593F6B277}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1895E52C-471F-4153-8D1B-349B99FB5625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930892F1-2A6C-4298-8330-D983B1026F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>6</v>
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -1228,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
@@ -1256,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -1270,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
@@ -1284,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -1312,7 +1312,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>6</v>
@@ -1326,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -1340,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -1354,7 +1354,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
@@ -1368,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -1382,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
@@ -1396,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -1410,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -1424,7 +1424,7 @@
         <v>29</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -1438,7 +1438,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>6</v>
@@ -1452,7 +1452,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>6</v>
@@ -1466,7 +1466,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -1480,7 +1480,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>6</v>
@@ -1494,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>6</v>
@@ -1508,7 +1508,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>6</v>
@@ -1522,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>6</v>
@@ -1536,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>6</v>
@@ -1550,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -1578,7 +1578,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -1592,7 +1592,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -1606,7 +1606,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -1620,7 +1620,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -1634,7 +1634,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>6</v>
@@ -1648,7 +1648,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>6</v>
@@ -1662,7 +1662,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>6</v>
@@ -1676,7 +1676,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>6</v>
@@ -1690,7 +1690,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -1704,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -1718,7 +1718,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>6</v>
@@ -1732,7 +1732,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>6</v>
@@ -1746,7 +1746,7 @@
         <v>56</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -1760,7 +1760,7 @@
         <v>58</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>6</v>
@@ -1774,7 +1774,7 @@
         <v>59</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:B115"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>6</v>
@@ -1948,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -1962,7 +1962,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
@@ -1976,7 +1976,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -2032,7 +2032,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -2046,7 +2046,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>6</v>
@@ -2060,7 +2060,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -2074,7 +2074,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>6</v>
@@ -2088,7 +2088,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -2116,7 +2116,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
@@ -2130,7 +2130,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -2158,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -2172,7 +2172,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>6</v>
@@ -2186,7 +2186,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>6</v>
@@ -2200,7 +2200,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -2256,7 +2256,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>6</v>
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>6</v>
@@ -2284,7 +2284,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>6</v>
@@ -2312,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>6</v>
@@ -2340,7 +2340,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>6</v>
@@ -2382,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>6</v>
@@ -2396,7 +2396,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -2410,7 +2410,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -2424,7 +2424,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -2438,7 +2438,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>6</v>
@@ -2452,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>6</v>
@@ -2494,7 +2494,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>6</v>
@@ -2508,7 +2508,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>6</v>
@@ -2522,7 +2522,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>6</v>
@@ -2536,7 +2536,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
@@ -2550,7 +2550,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>7</v>
@@ -2564,7 +2564,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>7</v>
@@ -2578,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -2592,7 +2592,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -2606,7 +2606,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>7</v>
@@ -2620,7 +2620,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
@@ -2634,7 +2634,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>7</v>
@@ -2676,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>6</v>
@@ -2690,7 +2690,7 @@
         <v>40</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>6</v>
@@ -2704,7 +2704,7 @@
         <v>41</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>7</v>
@@ -2718,7 +2718,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>7</v>
@@ -2732,7 +2732,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>7</v>
@@ -2746,7 +2746,7 @@
         <v>44</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>7</v>
@@ -2760,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>7</v>
@@ -2774,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>7</v>
@@ -2830,7 +2830,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>6</v>
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -2858,7 +2858,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>6</v>
@@ -2872,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>6</v>
@@ -2886,7 +2886,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>6</v>
@@ -2900,7 +2900,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>7</v>
@@ -2914,7 +2914,7 @@
         <v>66</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>6</v>
@@ -2928,7 +2928,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>7</v>
@@ -2956,7 +2956,7 @@
         <v>26</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>7</v>
@@ -2970,7 +2970,7 @@
         <v>55</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>6</v>
@@ -2984,7 +2984,7 @@
         <v>50</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>6</v>
@@ -2998,7 +2998,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>7</v>
@@ -3012,7 +3012,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>6</v>
@@ -3026,7 +3026,7 @@
         <v>68</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>6</v>
@@ -3040,7 +3040,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>6</v>
@@ -3068,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>7</v>
@@ -3082,7 +3082,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>6</v>
@@ -3096,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>6</v>
@@ -3110,7 +3110,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>7</v>
@@ -3194,7 +3194,7 @@
         <v>56</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>6</v>
@@ -3208,7 +3208,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>6</v>
@@ -3222,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>6</v>
@@ -3250,7 +3250,7 @@
         <v>66</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>6</v>
@@ -3376,7 +3376,7 @@
         <v>89</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>6</v>
@@ -3390,7 +3390,7 @@
         <v>50</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>6</v>
@@ -3404,7 +3404,7 @@
         <v>55</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>6</v>
@@ -3424,7 +3424,7 @@
         <v>91</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>6</v>
@@ -3445,7 +3445,7 @@
         <v>92</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>7</v>
@@ -3487,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,7 +3547,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>6</v>
@@ -3564,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -3578,7 +3578,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
@@ -3592,7 +3592,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
@@ -3606,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -3620,7 +3620,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
@@ -3648,7 +3648,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
@@ -3662,7 +3662,7 @@
         <v>66</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>6</v>
@@ -3676,7 +3676,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>6</v>
@@ -3704,7 +3704,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
@@ -3718,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
@@ -3732,7 +3732,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
@@ -3746,7 +3746,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
@@ -3760,7 +3760,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
@@ -3774,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
@@ -3788,7 +3788,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>6</v>
@@ -3802,7 +3802,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>6</v>
@@ -3816,7 +3816,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>6</v>
@@ -3872,7 +3872,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>6</v>
@@ -3886,7 +3886,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>6</v>
@@ -3900,7 +3900,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>6</v>
@@ -3928,7 +3928,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>6</v>
@@ -3942,7 +3942,7 @@
         <v>13</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>6</v>
@@ -3956,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>6</v>
@@ -3998,7 +3998,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -4026,7 +4026,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -4040,7 +4040,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -4054,7 +4054,7 @@
         <v>29</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>6</v>
@@ -4068,7 +4068,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>6</v>
@@ -4082,7 +4082,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>6</v>
@@ -4110,7 +4110,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>6</v>
@@ -4124,7 +4124,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>6</v>
@@ -4138,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>6</v>
@@ -4152,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
@@ -4166,7 +4166,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>7</v>
@@ -4180,7 +4180,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>7</v>
@@ -4194,7 +4194,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -4208,7 +4208,7 @@
         <v>45</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -4222,7 +4222,7 @@
         <v>46</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>7</v>
@@ -4236,7 +4236,7 @@
         <v>68</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
@@ -4250,7 +4250,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>7</v>
@@ -4292,7 +4292,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>6</v>
@@ -4306,7 +4306,7 @@
         <v>40</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>6</v>
@@ -4320,7 +4320,7 @@
         <v>41</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>7</v>
@@ -4334,7 +4334,7 @@
         <v>42</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>7</v>
@@ -4348,7 +4348,7 @@
         <v>43</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>7</v>
@@ -4362,7 +4362,7 @@
         <v>44</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>7</v>
@@ -4376,7 +4376,7 @@
         <v>45</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>7</v>
@@ -4390,7 +4390,7 @@
         <v>46</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>7</v>
@@ -4446,7 +4446,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>6</v>
@@ -4460,7 +4460,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -4474,7 +4474,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>6</v>
@@ -4488,7 +4488,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>6</v>
@@ -4502,7 +4502,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>6</v>
@@ -4516,7 +4516,7 @@
         <v>53</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>7</v>
@@ -4530,7 +4530,7 @@
         <v>66</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>6</v>
@@ -4544,7 +4544,7 @@
         <v>38</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>6</v>
@@ -4558,7 +4558,7 @@
         <v>26</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>7</v>
@@ -4572,7 +4572,7 @@
         <v>26</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>7</v>
@@ -4586,7 +4586,7 @@
         <v>55</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>6</v>
@@ -4600,7 +4600,7 @@
         <v>50</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>6</v>
@@ -4614,7 +4614,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>7</v>
@@ -4628,7 +4628,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>6</v>
@@ -4642,7 +4642,7 @@
         <v>68</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>6</v>
@@ -4656,7 +4656,7 @@
         <v>69</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>6</v>
@@ -4684,7 +4684,7 @@
         <v>26</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>7</v>
@@ -4698,7 +4698,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>7</v>
@@ -4712,7 +4712,7 @@
         <v>50</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>7</v>
@@ -4726,7 +4726,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>7</v>
@@ -4810,7 +4810,7 @@
         <v>56</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>6</v>
@@ -4824,7 +4824,7 @@
         <v>29</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>6</v>
@@ -4838,7 +4838,7 @@
         <v>13</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>6</v>
@@ -4866,7 +4866,7 @@
         <v>66</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>6</v>
@@ -5103,8 +5103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -5194,7 +5194,7 @@
         <v>99</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -5208,7 +5208,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -5222,7 +5222,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -5236,7 +5236,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -5250,7 +5250,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -5278,7 +5278,7 @@
         <v>103</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -5292,7 +5292,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -5306,7 +5306,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -5320,7 +5320,7 @@
         <v>105</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -5334,7 +5334,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -5558,7 +5558,7 @@
         <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>7</v>
@@ -5572,7 +5572,7 @@
         <v>110</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>7</v>
@@ -5586,7 +5586,7 @@
         <v>115</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -5600,7 +5600,7 @@
         <v>111</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -5614,7 +5614,7 @@
         <v>105</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>7</v>
@@ -5628,7 +5628,7 @@
         <v>112</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>7</v>
@@ -5642,7 +5642,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>7</v>
@@ -5656,7 +5656,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>7</v>
@@ -5670,7 +5670,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>7</v>
@@ -5684,7 +5684,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>7</v>
@@ -5698,7 +5698,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>7</v>
@@ -5712,7 +5712,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -5726,7 +5726,7 @@
         <v>113</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>7</v>
@@ -5740,7 +5740,7 @@
         <v>73</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>7</v>
@@ -5768,7 +5768,7 @@
         <v>114</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>7</v>
@@ -5964,7 +5964,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>7</v>
@@ -5978,7 +5978,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>7</v>
@@ -5992,7 +5992,7 @@
         <v>26</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>7</v>
@@ -6006,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>7</v>
@@ -6020,7 +6020,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>7</v>
@@ -6034,7 +6034,7 @@
         <v>103</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>7</v>
@@ -6048,7 +6048,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>7</v>
@@ -6062,7 +6062,7 @@
         <v>106</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>7</v>
@@ -6090,7 +6090,7 @@
         <v>105</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>7</v>
@@ -6104,7 +6104,7 @@
         <v>104</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>7</v>
@@ -6328,7 +6328,7 @@
         <v>80</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>7</v>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930892F1-2A6C-4298-8330-D983B1026F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97F3B7-6D77-481A-ACC7-9B3EFAE846A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
     <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
     <sheet name="Revisión 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Revisión flujo e inserts" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="161">
   <si>
     <t>Detalle</t>
   </si>
@@ -430,6 +431,93 @@
   </si>
   <si>
     <t>Ver surtidos específicos</t>
+  </si>
+  <si>
+    <t>Diseño de App:</t>
+  </si>
+  <si>
+    <t>Calificación:</t>
+  </si>
+  <si>
+    <t>Revisiones:</t>
+  </si>
+  <si>
+    <t>Menú</t>
+  </si>
+  <si>
+    <t>Las animaciones de los botones hacen que se pierdan un poco.</t>
+  </si>
+  <si>
+    <t>Guardar empleado</t>
+  </si>
+  <si>
+    <t>Debería decir VACÍOS en lugar de VACÍO.</t>
+  </si>
+  <si>
+    <t>El título debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Guardar proveedor</t>
+  </si>
+  <si>
+    <t>La ventana muestra tiene tamaño de más, muestra partes grises.</t>
+  </si>
+  <si>
+    <t>Si cierro la ventana y la vuelvo a abrir, los campos no se reinician los cambios.</t>
+  </si>
+  <si>
+    <t>Debería decir ESTÁN en lugar de ESTA.</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Los RadioButtons deben ser del mismo tamaño para que visualmente se vea correcto.</t>
+  </si>
+  <si>
+    <t>Guardar producto</t>
+  </si>
+  <si>
+    <t>Hice una inserción y cuando volví a abrir no se reiniciaron los campos.</t>
+  </si>
+  <si>
+    <t>La flecha roja se pierde en la animación.</t>
+  </si>
+  <si>
+    <t>El campo PAGO no está validado, puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>Los empleados aparecen como POJO@...</t>
+  </si>
+  <si>
+    <t>Todavía no remueve los productos.</t>
+  </si>
+  <si>
+    <t>Aún no inserta ventas.</t>
+  </si>
+  <si>
+    <t>Ya no debe decir TITLE en los encabezados.</t>
+  </si>
+  <si>
+    <t>El botón  VER MÁS debe tener texto en tipo oración.</t>
+  </si>
+  <si>
+    <t>Si estoy en VER VENTAS y le doy INICIO se descompone la interfaz.</t>
+  </si>
+  <si>
+    <t>Surtidos</t>
+  </si>
+  <si>
+    <t>Aún no carga la tabla de productos.</t>
+  </si>
+  <si>
+    <t>Las tablas no tienen filtros.</t>
+  </si>
+  <si>
+    <t>El diseño no está completo.</t>
+  </si>
+  <si>
+    <t>Porcentaje:</t>
   </si>
 </sst>
 </file>
@@ -676,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -740,11 +828,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1137,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1343,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1553,7 +1672,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1567,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1581,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1595,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1609,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1623,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1693,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1707,7 +1826,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1749,7 +1868,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1777,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1818,7 +1937,7 @@
       </c>
       <c r="G51">
         <f>COUNTIF(D8:D52,"Sí")</f>
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1839,7 +1958,7 @@
       </c>
       <c r="G52" s="23">
         <f>G51/G50*10</f>
-        <v>6.8888888888888893</v>
+        <v>9.5555555555555554</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,12 +1967,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+eN+9BxTNnhQffWJAMD4JL3ATrsxGlF0tMPbbWkf6mOoJsPjrw23so0FauY0L9GELnZIYLj/gY9oDlpm4xrnTA==" saltValue="T18lvD86dzYxncDZqYmCLw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/1m2pQUuQZHn7+P2JDd/g1Y0SeLnA/9t8JMw6xKUZ6RDMFekxs/UXFz9NXwBJhByzGSE+7NtqhNCu9AK0a7a9Q==" saltValue="XNocxfggJBr1kBa/48tGzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1871,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2063,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2399,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2413,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2427,7 +2546,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2539,7 +2658,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2553,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2567,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2581,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2595,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2609,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2623,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2637,7 +2756,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2847,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2903,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2945,7 +3064,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2959,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3001,7 +3120,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3071,7 +3190,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3113,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3434,7 +3553,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3455,7 +3574,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>4.9074074074074074</v>
+        <v>6.7592592592592595</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3464,12 +3583,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Ft916Eyf+BnSbO2LCjiyVR3wY6TbrtQJubPx9nuYwtoqDeZrNxWgX/QEvaLmcRwDJ5DMmgZJBROu8CAseW7iBg==" saltValue="ln0NOIsJ4+HW/LyQrY0aUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b39pOTInnlRuf3VxT/6hkm/gYESkBt4qJGdValBlXnGK9x/A74ln4NSVa+UYyndQLKpc5HdY6zGXrw/P2jPkEg==" saltValue="KjGgLtsUPzybJh2YGhWMfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3487,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3686,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3679,7 +3798,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4015,7 +4134,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4029,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4043,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4155,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4169,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4183,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4197,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4211,7 +4330,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4225,7 +4344,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4239,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4253,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -4463,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4519,7 +4638,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4561,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4575,7 +4694,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4617,7 +4736,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4687,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4701,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4715,7 +4834,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4729,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5050,7 +5169,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5071,7 +5190,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>4.7222222222222223</v>
+        <v>6.7592592592592595</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5080,12 +5199,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/rK9DO5JGzTYyZ0+uFaFJnJkuwD5ztgePZf7BQTOAp4WiXi95QwcTFoD7oWt7qIjNuaY6zcqwJiWGD17U6pi9Q==" saltValue="dDUwBRc+S3aGhclxpJFeAg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="skilWV5AKbiRRQkl1TWHWPDm1H7NztEl1httZhWnwNBNIU5E1hNOxngTkNyA7pnV5siRHUpbYtjfaP5Bew+16Q==" saltValue="xe7pYL/ta0IrAQwXjcw03A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5103,8 +5222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5166,7 +5285,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -5183,7 +5302,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5197,7 +5316,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5225,7 +5344,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5239,7 +5358,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5253,7 +5372,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5281,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5295,7 +5414,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5323,7 +5442,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5337,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5575,7 +5694,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,7 +5708,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5617,7 +5736,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5631,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5645,7 +5764,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5659,7 +5778,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5673,7 +5792,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5687,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5701,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5715,7 +5834,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5729,7 +5848,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5743,7 +5862,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5757,7 +5876,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5771,7 +5890,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -5967,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5981,7 +6100,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5995,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6023,7 +6142,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6037,7 +6156,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6051,7 +6170,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6331,7 +6450,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -6694,7 +6813,7 @@
       </c>
       <c r="G116">
         <f>COUNTIF(D8:D117,"Sí")</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6715,16 +6834,16 @@
       </c>
       <c r="G117" s="23">
         <f>G116/G115*10</f>
-        <v>0</v>
+        <v>2.7927927927927927</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1Ot1W62W+L9w0J9Vrj+2mgpyzSsqAR7cy3/YL7VQEI80uL+71IEZBNJ9imBzdUzznvlnaWYHsyUhVy6vuHt8sg==" saltValue="OQcAI1hNHxPNZ4YdWrylZg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="45ieCnDHa2nSIPPFc7dt/8mGgpvohEtj9vWg7283ORzmAu43j3by8V9A4sTR35frSQnEEbsajr9VnEDKk1M7xA==" saltValue="aC95E047mXjusZ2ZBvcc9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6736,4 +6855,529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
+  <dimension ref="A1:L36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J34" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="I35" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="L35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="23">
+        <f>40-G34/3</f>
+        <v>30.333333333333336</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="2MzDMzB7EDjP6wp9nIfngDHcw7tZ32MCeDutg9m2sjXXPohvMYvlg+ZIpa+wFcduw/zzqZJgeCoQazBHhlnOFg==" saltValue="E3FKlUz42pJiXuF3qaQ7Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D36">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D36" xr:uid="{F176CECC-2A9B-44DA-A98D-FF2A20F95974}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B97F3B7-6D77-481A-ACC7-9B3EFAE846A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69507A12-F690-4A0C-BDDD-986F149B3BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -5222,7 +5222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -6861,8 +6861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,7 +6924,7 @@
         <v>136</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>7</v>
@@ -6941,7 +6941,7 @@
         <v>138</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -6955,7 +6955,7 @@
         <v>104</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -6969,7 +6969,7 @@
         <v>139</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -6983,7 +6983,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -6997,7 +6997,7 @@
         <v>139</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -7011,7 +7011,7 @@
         <v>141</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -7025,7 +7025,7 @@
         <v>136</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -7039,7 +7039,7 @@
         <v>142</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -7053,7 +7053,7 @@
         <v>104</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -7067,7 +7067,7 @@
         <v>143</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -7081,7 +7081,7 @@
         <v>106</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -7095,7 +7095,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -7109,7 +7109,7 @@
         <v>139</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -7123,7 +7123,7 @@
         <v>142</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -7137,7 +7137,7 @@
         <v>138</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -7151,7 +7151,7 @@
         <v>147</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -7165,7 +7165,7 @@
         <v>148</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -7179,7 +7179,7 @@
         <v>149</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -7193,7 +7193,7 @@
         <v>150</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -7207,7 +7207,7 @@
         <v>151</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -7221,7 +7221,7 @@
         <v>152</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -7235,7 +7235,7 @@
         <v>153</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69507A12-F690-4A0C-BDDD-986F149B3BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019ECE2-DD13-4903-8C85-7E18254F71F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
     <sheet name="Revisión 4" sheetId="4" r:id="rId4"/>
     <sheet name="Revisión flujo e inserts" sheetId="6" r:id="rId5"/>
+    <sheet name="Primera revisión SELECT's" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="178">
   <si>
     <t>Detalle</t>
   </si>
@@ -518,12 +519,66 @@
   </si>
   <si>
     <t>Porcentaje:</t>
+  </si>
+  <si>
+    <t>Ver empleados</t>
+  </si>
+  <si>
+    <t>El mensaje de advertencia al no seleccionar nada y querer ver la información de un empleado debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Es un JDialog y si lo cierro no puedo regresar al programa.</t>
+  </si>
+  <si>
+    <t>Ver productos</t>
+  </si>
+  <si>
+    <t>Verificar las dimensiones de la ventana ya que se pierde una parte de la misma.</t>
+  </si>
+  <si>
+    <t>No debe mostrar el ID del proveedor, debe ser su nombre.</t>
+  </si>
+  <si>
+    <t>CÓDIGO DE BARRAS debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>COSTO AL CLIENTE debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>COSTO AL DUEÑO debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Ver proveedores</t>
+  </si>
+  <si>
+    <t>El botón VER no tiene tooltiptext.</t>
+  </si>
+  <si>
+    <t>El botón MENÚ no tiene tooltiptext.</t>
+  </si>
+  <si>
+    <t>Las flechas no tienen tooltiptext.</t>
+  </si>
+  <si>
+    <t>El botón VER MÁS debe ser tipo oración.</t>
+  </si>
+  <si>
+    <t>Hice un surtido de 4 productos, con 2 proveedores diferentes (2 productos por cada proveedor), me los muestra bien en el listado, pero cuando despliego la información de cada uno por separado, me muestra los 4 productos.</t>
+  </si>
+  <si>
+    <t>Al remover productos de la lista no me actualiza el total.</t>
+  </si>
+  <si>
+    <t>Ver venta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,7 +611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -760,11 +815,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,11 +978,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1257,7 +1440,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1937,7 +2120,7 @@
       </c>
       <c r="G51">
         <f>COUNTIF(D8:D52,"Sí")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1958,7 +2141,7 @@
       </c>
       <c r="G52" s="23">
         <f>G51/G50*10</f>
-        <v>9.5555555555555554</v>
+        <v>9.7777777777777768</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1967,12 +2150,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/1m2pQUuQZHn7+P2JDd/g1Y0SeLnA/9t8JMw6xKUZ6RDMFekxs/UXFz9NXwBJhByzGSE+7NtqhNCu9AK0a7a9Q==" saltValue="XNocxfggJBr1kBa/48tGzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6mW+2QNLHNaR4uvfL9WbyKU9tQ5nfzswhHpHgUo9X4kgpGHnN5+VQxjjODBLz4UfGBGtGFx058VjzBzDP4OsOQ==" saltValue="mN2SKCagUqXuuaf1KgaTSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1990,8 +2173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3553,7 +3736,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3567,14 +3750,14 @@
         <v>6</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
         <v>95</v>
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>6.7592592592592595</v>
+        <v>6.9444444444444446</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3583,12 +3766,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="b39pOTInnlRuf3VxT/6hkm/gYESkBt4qJGdValBlXnGK9x/A74ln4NSVa+UYyndQLKpc5HdY6zGXrw/P2jPkEg==" saltValue="KjGgLtsUPzybJh2YGhWMfQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f2GLkZzKg8eJvMqb6yiU91+f3pq+LVgKkDW+A4AXPhZYTskdD7C2p/uFACuO1LKCehrQV0WDBfLyu75DGJvNdQ==" saltValue="biTlnCU3mTPvMbcbvxA5Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3606,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,7 +3911,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5169,7 +5352,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5183,14 +5366,14 @@
         <v>7</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
         <v>95</v>
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>6.7592592592592595</v>
+        <v>6.9444444444444446</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5199,12 +5382,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="skilWV5AKbiRRQkl1TWHWPDm1H7NztEl1httZhWnwNBNIU5E1hNOxngTkNyA7pnV5siRHUpbYtjfaP5Bew+16Q==" saltValue="xe7pYL/ta0IrAQwXjcw03A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JwMftWIN5zktcmL+o65d5d3XPrMJVoHqEJzmMj56a3kEIkzv2iZZ6AiKPHiSsppYG280hvGjZPt9/yG6AiiqHQ==" saltValue="8pZvffE6ayflxGL1dNAr/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5222,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,7 +5513,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5428,7 +5611,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5680,7 +5863,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,7 +5905,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6128,7 +6311,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6184,7 +6367,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6212,7 +6395,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6226,7 +6409,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6813,7 +6996,7 @@
       </c>
       <c r="G116">
         <f>COUNTIF(D8:D117,"Sí")</f>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6834,16 +7017,16 @@
       </c>
       <c r="G117" s="23">
         <f>G116/G115*10</f>
-        <v>2.7927927927927927</v>
+        <v>3.5135135135135136</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="45ieCnDHa2nSIPPFc7dt/8mGgpvohEtj9vWg7283ORzmAu43j3by8V9A4sTR35frSQnEEbsajr9VnEDKk1M7xA==" saltValue="aC95E047mXjusZ2ZBvcc9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BFew6tJbYOoIFEdIdqcWauhz881sUgqNnMU1PBdVG29FePp6QuqlxfyITtZlfmrD1kwZaYynVe9uxsqlrlCJDg==" saltValue="iyAsRCfjDGM1TIe2eRrLmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6861,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -6944,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6958,7 +7141,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6986,7 +7169,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7014,7 +7197,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7028,7 +7211,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7042,7 +7225,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7056,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7070,7 +7253,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7084,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7098,7 +7281,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7126,7 +7309,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7140,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7154,7 +7337,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7168,7 +7351,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7182,7 +7365,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7196,7 +7379,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7210,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7224,7 +7407,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7238,7 +7421,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,12 +7546,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2MzDMzB7EDjP6wp9nIfngDHcw7tZ32MCeDutg9m2sjXXPohvMYvlg+ZIpa+wFcduw/zzqZJgeCoQazBHhlnOFg==" saltValue="E3FKlUz42pJiXuF3qaQ7Sg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7380,4 +7562,452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="I29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J30" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="bFJVP9LfIqooJxofvdLzcyDKZx4tIc+gPmXGdPsJgHEz8W+fLpCVlwrYb5vCb+soeQmr9OXR86hdzsXfu9ieYA==" saltValue="uJ6ZQoRrfjUvj02M8/Giew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D31">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D31" xr:uid="{488590B4-CA47-44E0-A272-D35D991BDA00}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019ECE2-DD13-4903-8C85-7E18254F71F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3B41B-C7FC-4E84-9DEA-EEF05B04082F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6378,7 +6378,7 @@
         <v>119</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>7</v>
@@ -7044,8 +7044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7446,7 +7446,7 @@
         <v>155</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -7460,7 +7460,7 @@
         <v>157</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -7474,7 +7474,7 @@
         <v>158</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -7503,7 +7503,7 @@
         <v>149</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -7532,7 +7532,7 @@
         <v>159</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>7</v>
@@ -7568,8 +7568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,7 +7631,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>7</v>
@@ -7648,7 +7648,7 @@
         <v>163</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -7662,7 +7662,7 @@
         <v>162</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -7676,7 +7676,7 @@
         <v>162</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -7690,7 +7690,7 @@
         <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -7704,7 +7704,7 @@
         <v>139</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -7718,7 +7718,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -7732,7 +7732,7 @@
         <v>167</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -7746,7 +7746,7 @@
         <v>168</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -7760,7 +7760,7 @@
         <v>169</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -7774,7 +7774,7 @@
         <v>162</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
@@ -7788,7 +7788,7 @@
         <v>139</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>7</v>
@@ -7802,7 +7802,7 @@
         <v>171</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>7</v>
@@ -7816,7 +7816,7 @@
         <v>172</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -7830,7 +7830,7 @@
         <v>173</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -7844,7 +7844,7 @@
         <v>162</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -7858,7 +7858,7 @@
         <v>176</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -7872,7 +7872,7 @@
         <v>139</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -7886,7 +7886,7 @@
         <v>174</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -7900,7 +7900,7 @@
         <v>175</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -7914,7 +7914,7 @@
         <v>176</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -7928,7 +7928,7 @@
         <v>139</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -7954,7 +7954,7 @@
         <v>174</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -7980,7 +7980,7 @@
         <v>139</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>7</v>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA3B41B-C7FC-4E84-9DEA-EEF05B04082F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B029A9D-9C44-490D-AE58-9522AEF5A7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Revisión 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
     <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
     <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
     <sheet name="Revisión 4" sheetId="4" r:id="rId4"/>
     <sheet name="Revisión flujo e inserts" sheetId="6" r:id="rId5"/>
     <sheet name="Primera revisión SELECT's" sheetId="8" r:id="rId6"/>
+    <sheet name="Segunda revisión SELECT's" sheetId="11" r:id="rId7"/>
+    <sheet name="Primera revisión UPDATE's" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="191">
   <si>
     <t>Detalle</t>
   </si>
@@ -570,6 +572,45 @@
   </si>
   <si>
     <t>Ver venta</t>
+  </si>
+  <si>
+    <t>Alcohólicas lleva acento en la segunda O (Combobox).</t>
+  </si>
+  <si>
+    <t>El botón VER dice VER VENTAS.</t>
+  </si>
+  <si>
+    <t>Ventas/Surtidos</t>
+  </si>
+  <si>
+    <t>No estoy muy seguro dónde fue pero hice ventas y surtidos y terminé con tres ventanas de menú abiertas.</t>
+  </si>
+  <si>
+    <t>El campo TELÉFONO no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>Puedo agregar proveedores con teléfonos muy extraños y sin límite.</t>
+  </si>
+  <si>
+    <t>No está validado contra campos vacíos.</t>
+  </si>
+  <si>
+    <t>Borré todos los datos de un proveedor, traté de agregarlo y me marcó error a nivel consola pero no nivel usuario.</t>
+  </si>
+  <si>
+    <t>El campo STOCK no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>El campo COSTO AL PÚBLICO no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>El campo COSTO AL DUEÑO no está validado. Puedo escribir letras.</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Aumentar un poco el tamaño de la tipografía, algunas palabras no se entienden por el tipo de letra.</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1047,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1439,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2120,7 +2201,7 @@
       </c>
       <c r="G51">
         <f>COUNTIF(D8:D52,"Sí")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2141,7 +2222,7 @@
       </c>
       <c r="G52" s="23">
         <f>G51/G50*10</f>
-        <v>9.7777777777777768</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,12 +2231,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6mW+2QNLHNaR4uvfL9WbyKU9tQ5nfzswhHpHgUo9X4kgpGHnN5+VQxjjODBLz4UfGBGtGFx058VjzBzDP4OsOQ==" saltValue="mN2SKCagUqXuuaf1KgaTSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jxdN8lZFYDmMmcbLE6f9zrvR2L96b43foPsTvAL8bFvxJoWHgzuJcO/RrwrDfWaVqbpghwPniA9mbd8Om/Llcw==" saltValue="NX6SyP2gzFG9+e/Jyr77Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2173,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3017,7 +3098,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
@@ -3037,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3051,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3065,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3079,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3736,7 +3817,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3757,7 +3838,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>6.9444444444444446</v>
+        <v>7.4074074074074066</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,12 +3847,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f2GLkZzKg8eJvMqb6yiU91+f3pq+LVgKkDW+A4AXPhZYTskdD7C2p/uFACuO1LKCehrQV0WDBfLyu75DGJvNdQ==" saltValue="biTlnCU3mTPvMbcbvxA5Cg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bHiQ7UrsT9VzG8majBa0hp+qz+IVlqu3IdKHNAe90Guq8kvORwJ+57TvuMbs2Bhd1jIIvH9khRoBYxRD26N4pg==" saltValue="ewTi/RzmymYBNkpfGLtFaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3789,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,7 +4706,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4633,7 +4714,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
@@ -4653,7 +4734,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4667,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4681,7 +4762,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4695,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5352,7 +5433,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5373,7 +5454,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>6.9444444444444446</v>
+        <v>7.4074074074074066</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5382,12 +5463,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JwMftWIN5zktcmL+o65d5d3XPrMJVoHqEJzmMj56a3kEIkzv2iZZ6AiKPHiSsppYG280hvGjZPt9/yG6AiiqHQ==" saltValue="8pZvffE6ayflxGL1dNAr/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0Wz4hIFkt+NQrmxYomqgOt1dkxyTCddak2Qb+McV0BH6a8woCOfzwkguBKanYemX+FfDvAR1CKpvVf1uFJJ5kA==" saltValue="V4j98ZketPxBxAvrYeuqXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5405,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6381,7 +6462,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6996,7 +7077,7 @@
       </c>
       <c r="G116">
         <f>COUNTIF(D8:D117,"Sí")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7017,16 +7098,16 @@
       </c>
       <c r="G117" s="23">
         <f>G116/G115*10</f>
-        <v>3.5135135135135136</v>
+        <v>3.6036036036036032</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BFew6tJbYOoIFEdIdqcWauhz881sUgqNnMU1PBdVG29FePp6QuqlxfyITtZlfmrD1kwZaYynVe9uxsqlrlCJDg==" saltValue="iyAsRCfjDGM1TIe2eRrLmw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="WEWmR1PJpcqcNqmcqm/v3warN0+juEoOyd+f0GmgBsGQB7+NJtYp7gbhC0KFbOyLcRm0cihyibP3o/zc7Vcxng==" saltValue="yYoTnG4MXjKoSMByuEaMEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7044,8 +7125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7155,7 +7236,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7183,7 +7264,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7295,7 +7376,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7449,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -7463,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -7477,7 +7558,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -7506,7 +7587,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
         <v>160</v>
@@ -7535,7 +7616,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
         <v>95</v>
@@ -7546,11 +7627,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5TS7J2NNCxkast+QjioCY8S0YrOjX3nvV1zTQJWh9VOCWmnmCUpZFJQNhv9VPrja/7XOtnoydgsAza2NRFaqVQ==" saltValue="nQ1UDSLhz0wDOZzJSjvwTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7568,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,7 +7716,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -7651,7 +7733,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7665,7 +7747,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7679,7 +7761,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7693,7 +7775,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7707,7 +7789,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7721,7 +7803,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7735,7 +7817,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -7749,7 +7831,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7763,7 +7845,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7777,7 +7859,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7791,7 +7873,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7805,7 +7887,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7819,7 +7901,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7833,7 +7915,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -7847,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7861,7 +7943,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7875,7 +7957,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7889,7 +7971,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
@@ -7903,7 +7985,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -7917,7 +7999,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -7931,7 +8013,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>93</v>
@@ -7957,7 +8039,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>160</v>
@@ -7983,7 +8065,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>95</v>
@@ -7993,12 +8075,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bFJVP9LfIqooJxofvdLzcyDKZx4tIc+gPmXGdPsJgHEz8W+fLpCVlwrYb5vCb+soeQmr9OXR86hdzsXfu9ieYA==" saltValue="uJ6ZQoRrfjUvj02M8/Giew==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="N4m4BXn3B6Aj19db/JcbC+LRxOVMEQTUKwHdCPZs5VNBvv0ELnn5yNH5sitt44LLY1B8rpfLzSSWD/DYv6P6TA==" saltValue="lBdbaIRVTUtZRxrWerIamw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D31">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8010,4 +8092,380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18EAF1-57C0-473F-9CD8-DCB21970B76E}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(D8:D9,"No")</f>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="29">
+        <f>(2.5-G7)/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="BnyTXUc54FW7z8XcPUsBiEM+dvjrbqNjuO5zb7ZYoCIQ20vixVD7qTN73xPpl8w634p44MT741pemME/agy37Q==" saltValue="Oif76Z1zL7OrgUnrY2qfqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D9">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D9" xr:uid="{2202DEF7-08BA-4F24-BEA0-EDA85F7FC9D1}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6016A9-0F9B-4A93-B168-D92AD0257E27}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="H23OwuYYC4hdCyHe8FxQmy8BIZe0iuciMqZIQ8CgpZpb7pkOpSswEND4sAsAdK/Id5kP+JxdbQxjrAvZYQVmNA==" saltValue="hg/OgefFSpWssxZWJgkFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D16">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D16" xr:uid="{DBEE2108-E476-4C66-915A-D3A8E8C73FDF}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B029A9D-9C44-490D-AE58-9522AEF5A7C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE1D79-8029-486A-8FC2-AD9A1422F733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Primera revisión SELECT's" sheetId="8" r:id="rId6"/>
     <sheet name="Segunda revisión SELECT's" sheetId="11" r:id="rId7"/>
     <sheet name="Primera revisión UPDATE's" sheetId="12" r:id="rId8"/>
+    <sheet name="UPDATE'S 2 y BAJAS 1" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="199">
   <si>
     <t>Detalle</t>
   </si>
@@ -611,6 +612,30 @@
   </si>
   <si>
     <t>Aumentar un poco el tamaño de la tipografía, algunas palabras no se entienden por el tipo de letra.</t>
+  </si>
+  <si>
+    <t>Guardar producto.</t>
+  </si>
+  <si>
+    <t>Todos los valores del ComboBox deben estar en tipo oración.</t>
+  </si>
+  <si>
+    <t>ALCOHÓLICAS lleva acento en la segunda O.</t>
+  </si>
+  <si>
+    <t>Modificar producto.</t>
+  </si>
+  <si>
+    <t>La ventana no muestra los iconos completos.</t>
+  </si>
+  <si>
+    <t>Los textos de los RadioButtons deben ser de color blanco.</t>
+  </si>
+  <si>
+    <t>El botón ELIMINAR  no está protegido contra no selecciones.</t>
+  </si>
+  <si>
+    <t>Aún no da de baja.</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1072,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2233,10 +2298,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jxdN8lZFYDmMmcbLE6f9zrvR2L96b43foPsTvAL8bFvxJoWHgzuJcO/RrwrDfWaVqbpghwPniA9mbd8Om/Llcw==" saltValue="NX6SyP2gzFG9+e/Jyr77Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2254,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,10 +3914,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bHiQ7UrsT9VzG8majBa0hp+qz+IVlqu3IdKHNAe90Guq8kvORwJ+57TvuMbs2Bhd1jIIvH9khRoBYxRD26N4pg==" saltValue="ewTi/RzmymYBNkpfGLtFaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5465,10 +5530,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0Wz4hIFkt+NQrmxYomqgOt1dkxyTCddak2Qb+McV0BH6a8woCOfzwkguBKanYemX+FfDvAR1CKpvVf1uFJJ5kA==" saltValue="V4j98ZketPxBxAvrYeuqXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5486,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -7104,10 +7169,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WEWmR1PJpcqcNqmcqm/v3warN0+juEoOyd+f0GmgBsGQB7+NJtYp7gbhC0KFbOyLcRm0cihyibP3o/zc7Vcxng==" saltValue="yYoTnG4MXjKoSMByuEaMEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7125,7 +7190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -7629,10 +7694,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5TS7J2NNCxkast+QjioCY8S0YrOjX3nvV1zTQJWh9VOCWmnmCUpZFJQNhv9VPrja/7XOtnoydgsAza2NRFaqVQ==" saltValue="nQ1UDSLhz0wDOZzJSjvwTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7650,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8077,10 +8142,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="N4m4BXn3B6Aj19db/JcbC+LRxOVMEQTUKwHdCPZs5VNBvv0ELnn5yNH5sitt44LLY1B8rpfLzSSWD/DYv6P6TA==" saltValue="lBdbaIRVTUtZRxrWerIamw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D31">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8217,10 +8282,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BnyTXUc54FW7z8XcPUsBiEM+dvjrbqNjuO5zb7ZYoCIQ20vixVD7qTN73xPpl8w634p44MT741pemME/agy37Q==" saltValue="Oif76Z1zL7OrgUnrY2qfqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D9">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8238,7 +8303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6016A9-0F9B-4A93-B168-D92AD0257E27}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -8453,10 +8518,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="H23OwuYYC4hdCyHe8FxQmy8BIZe0iuciMqZIQ8CgpZpb7pkOpSswEND4sAsAdK/Id5kP+JxdbQxjrAvZYQVmNA==" saltValue="hg/OgefFSpWssxZWJgkFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8468,4 +8533,283 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(D8:D19,"No")</f>
+        <v>12</v>
+      </c>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="w73vBHj3WvXgOF0cr129EfSfUzBMrkROu+P8ihNiJTRDHthtAz27U3J/iIUMPBdIIlriSsxta3V6N236NH2xmA==" saltValue="7LfU3gJmCKSooh9kMeznSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D16">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D19">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D19" xr:uid="{F7A9C4C1-8071-4C01-B81B-01C1BCD87D01}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE1D79-8029-486A-8FC2-AD9A1422F733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811C8FD9-0520-4D9D-A047-BD4B86D4A348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="9" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Segunda revisión SELECT's" sheetId="11" r:id="rId7"/>
     <sheet name="Primera revisión UPDATE's" sheetId="12" r:id="rId8"/>
     <sheet name="UPDATE'S 2 y BAJAS 1" sheetId="13" r:id="rId9"/>
+    <sheet name="Segunda reivisión de BAJAS" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="216">
   <si>
     <t>Detalle</t>
   </si>
@@ -636,6 +637,57 @@
   </si>
   <si>
     <t>Aún no da de baja.</t>
+  </si>
+  <si>
+    <t>Las letras de los RadioButton deben ser de color blanco al igual que todas las letras del sistema.</t>
+  </si>
+  <si>
+    <t>El ComboBox tiene un espacio de más.</t>
+  </si>
+  <si>
+    <t>Baja de empleado</t>
+  </si>
+  <si>
+    <t>El tooltiptext dice que sólo es de baja, pero también da de alta, hay que hacer una referencia a que puede hacer las dos funciones.</t>
+  </si>
+  <si>
+    <t>Insertar producto</t>
+  </si>
+  <si>
+    <t>DÍGITO lleva acento en la I.</t>
+  </si>
+  <si>
+    <t>Baja de proveedor</t>
+  </si>
+  <si>
+    <t>No está validado contra una no selección.</t>
+  </si>
+  <si>
+    <t>Puedo dejar al proveedor sin número de teléfono.</t>
+  </si>
+  <si>
+    <t>Puedo dejar al proveedor sin nombre.</t>
+  </si>
+  <si>
+    <t>Sí cambia el estado, pero no se refleja al instante, se ve hasta que me salgo de la ventana y la vuelvo a abrir.</t>
+  </si>
+  <si>
+    <t>Todos los elementos del ComboBox deben estar en tipo oración.</t>
+  </si>
+  <si>
+    <t>COSTO AL PÚBLICO tiene el acento al revés.</t>
+  </si>
+  <si>
+    <t>Ver productos de venta</t>
+  </si>
+  <si>
+    <t>Cuidado con el tamaño de la ventana, apenas y se come el un número cuando pasamos de los 100. Mi valor era 200.0 y se come una parte del .0</t>
+  </si>
+  <si>
+    <t>Si hago un pago menor al total, me inserta el surtido y me maneja un cambio incorrecto.</t>
+  </si>
+  <si>
+    <t>Si hago un pago menor al total, me inserta la venta y me maneja un cambio incorrecto.</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1124,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1585,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2298,10 +2410,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jxdN8lZFYDmMmcbLE6f9zrvR2L96b43foPsTvAL8bFvxJoWHgzuJcO/RrwrDfWaVqbpghwPniA9mbd8Om/Llcw==" saltValue="NX6SyP2gzFG9+e/Jyr77Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2315,11 +2427,327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B1FCD-1ED9-449E-AFC7-37B3CFE08CB7}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(D8:D21,"No")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="29">
+        <f>(2.5-G19)/100</f>
+        <v>-0.115</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="khX7DHnbIg+rrXAV05hApZHfLOeUxvu3q2zVhy089wv2bTYYhfLR7GDqCILWMhDKpns7B3WfnbYwBp9trawQzg==" saltValue="/pqsr7XdDX/5aZkw+74KKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C8:D16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:D19">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D21">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D21" xr:uid="{78202A6D-D070-432D-AA1F-A942DFC3653E}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
@@ -3914,10 +4342,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bHiQ7UrsT9VzG8majBa0hp+qz+IVlqu3IdKHNAe90Guq8kvORwJ+57TvuMbs2Bhd1jIIvH9khRoBYxRD26N4pg==" saltValue="ewTi/RzmymYBNkpfGLtFaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3935,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A107" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -5530,10 +5958,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0Wz4hIFkt+NQrmxYomqgOt1dkxyTCddak2Qb+McV0BH6a8woCOfzwkguBKanYemX+FfDvAR1CKpvVf1uFJJ5kA==" saltValue="V4j98ZketPxBxAvrYeuqXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5551,7 +5979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -7169,10 +7597,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WEWmR1PJpcqcNqmcqm/v3warN0+juEoOyd+f0GmgBsGQB7+NJtYp7gbhC0KFbOyLcRm0cihyibP3o/zc7Vcxng==" saltValue="yYoTnG4MXjKoSMByuEaMEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7694,10 +8122,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="5TS7J2NNCxkast+QjioCY8S0YrOjX3nvV1zTQJWh9VOCWmnmCUpZFJQNhv9VPrja/7XOtnoydgsAza2NRFaqVQ==" saltValue="nQ1UDSLhz0wDOZzJSjvwTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7715,7 +8143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8142,10 +8570,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="N4m4BXn3B6Aj19db/JcbC+LRxOVMEQTUKwHdCPZs5VNBvv0ELnn5yNH5sitt44LLY1B8rpfLzSSWD/DYv6P6TA==" saltValue="lBdbaIRVTUtZRxrWerIamw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D31">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8282,10 +8710,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BnyTXUc54FW7z8XcPUsBiEM+dvjrbqNjuO5zb7ZYoCIQ20vixVD7qTN73xPpl8w634p44MT741pemME/agy37Q==" saltValue="Oif76Z1zL7OrgUnrY2qfqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D9">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8518,10 +8946,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="H23OwuYYC4hdCyHe8FxQmy8BIZe0iuciMqZIQ8CgpZpb7pkOpSswEND4sAsAdK/Id5kP+JxdbQxjrAvZYQVmNA==" saltValue="hg/OgefFSpWssxZWJgkFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8539,7 +8967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -8789,18 +9217,18 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="w73vBHj3WvXgOF0cr129EfSfUzBMrkROu+P8ihNiJTRDHthtAz27U3J/iIUMPBdIIlriSsxta3V6N236NH2xmA==" saltValue="7LfU3gJmCKSooh9kMeznSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D19">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C17)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE1D79-8029-486A-8FC2-AD9A1422F733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AC7CA-CB76-4EC9-A179-2746C91D9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -5551,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="B115" workbookViewId="0">
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
@@ -7190,7 +7190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="C25" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -7715,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="C20" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8164,7 +8164,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,7 +8239,7 @@
         <v>179</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>7</v>
@@ -8266,7 +8266,7 @@
         <v>181</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>7</v>
@@ -8303,8 +8303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6016A9-0F9B-4A93-B168-D92AD0257E27}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8366,7 +8366,7 @@
         <v>182</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>7</v>
@@ -8383,7 +8383,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -8397,7 +8397,7 @@
         <v>184</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -8425,7 +8425,7 @@
         <v>186</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -8439,7 +8439,7 @@
         <v>187</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -8453,7 +8453,7 @@
         <v>188</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -8479,7 +8479,7 @@
         <v>182</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -8503,7 +8503,7 @@
         <v>190</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>7</v>
@@ -8539,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8602,7 +8602,7 @@
         <v>192</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>7</v>
@@ -8619,7 +8619,7 @@
         <v>193</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -8633,7 +8633,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         <v>193</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -8661,7 +8661,7 @@
         <v>195</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>7</v>
@@ -8675,7 +8675,7 @@
         <v>196</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>7</v>
@@ -8689,7 +8689,7 @@
         <v>197</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>7</v>
@@ -8717,7 +8717,7 @@
         <v>197</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>7</v>
@@ -8753,7 +8753,7 @@
         <v>197</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AC7CA-CB76-4EC9-A179-2746C91D9BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698624CE-6BC4-405E-800C-EC085CE352D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="7" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -5551,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5712,7 +5712,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -5796,7 +5796,7 @@
         <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>7</v>
@@ -5810,7 +5810,7 @@
         <v>107</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>7</v>
@@ -5824,7 +5824,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>7</v>
@@ -5838,7 +5838,7 @@
         <v>108</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>7</v>
@@ -5852,7 +5852,7 @@
         <v>103</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
@@ -5866,7 +5866,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>7</v>
@@ -7190,8 +7190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7578,7 +7578,7 @@
         <v>154</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -7715,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8304,7 +8304,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8411,7 +8411,7 @@
         <v>185</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -8539,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8703,7 +8703,7 @@
         <v>198</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
@@ -8731,7 +8731,7 @@
         <v>198</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>7</v>
@@ -8774,7 +8774,7 @@
         <v>198</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>7</v>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698624CE-6BC4-405E-800C-EC085CE352D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09314996-9A54-4162-AB1E-7A610137DE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2236,7 @@
         <v>61</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>6</v>
@@ -2256,7 +2256,7 @@
         <v>63</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>6</v>
@@ -2277,7 +2277,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>6</v>
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2662,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -2676,7 +2676,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -2690,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -2746,7 +2746,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -2928,7 +2928,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -3096,7 +3096,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>7</v>
@@ -3110,7 +3110,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
@@ -3236,7 +3236,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>7</v>
@@ -3250,7 +3250,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>7</v>
@@ -3264,7 +3264,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>7</v>
@@ -3502,7 +3502,7 @@
         <v>71</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>7</v>
@@ -3572,7 +3572,7 @@
         <v>79</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>7</v>
@@ -3586,7 +3586,7 @@
         <v>68</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>7</v>
@@ -3600,7 +3600,7 @@
         <v>69</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>7</v>
@@ -3614,7 +3614,7 @@
         <v>71</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>7</v>
@@ -3628,7 +3628,7 @@
         <v>71</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>7</v>
@@ -3684,7 +3684,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>7</v>
@@ -3712,7 +3712,7 @@
         <v>81</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>7</v>
@@ -3740,7 +3740,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>7</v>
@@ -3754,7 +3754,7 @@
         <v>84</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>7</v>
@@ -3768,7 +3768,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>7</v>
@@ -3782,7 +3782,7 @@
         <v>86</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>7</v>
@@ -3796,7 +3796,7 @@
         <v>87</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>7</v>
@@ -3810,7 +3810,7 @@
         <v>88</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>7</v>
@@ -3935,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4278,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -4292,7 +4292,7 @@
         <v>71</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -4306,7 +4306,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -4362,7 +4362,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -4418,7 +4418,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>7</v>
@@ -4432,7 +4432,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>7</v>
@@ -4544,7 +4544,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>7</v>
@@ -4712,7 +4712,7 @@
         <v>71</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>7</v>
@@ -4726,7 +4726,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
@@ -4852,7 +4852,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>7</v>
@@ -4866,7 +4866,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>7</v>
@@ -4880,7 +4880,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>7</v>
@@ -5118,7 +5118,7 @@
         <v>71</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>7</v>
@@ -5188,7 +5188,7 @@
         <v>79</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>7</v>
@@ -5202,7 +5202,7 @@
         <v>68</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>7</v>
@@ -5216,7 +5216,7 @@
         <v>69</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         <v>71</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>71</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>7</v>
@@ -5300,7 +5300,7 @@
         <v>80</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>7</v>
@@ -5328,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>7</v>
@@ -5342,7 +5342,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>7</v>
@@ -5356,7 +5356,7 @@
         <v>83</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>7</v>
@@ -5370,7 +5370,7 @@
         <v>84</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>7</v>
@@ -5384,7 +5384,7 @@
         <v>85</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>7</v>
@@ -5398,7 +5398,7 @@
         <v>86</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>7</v>
@@ -5412,7 +5412,7 @@
         <v>87</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>7</v>
@@ -5426,7 +5426,7 @@
         <v>88</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>7</v>
@@ -5440,7 +5440,7 @@
         <v>89</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>6</v>
@@ -5454,7 +5454,7 @@
         <v>50</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>6</v>
@@ -5468,7 +5468,7 @@
         <v>55</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>6</v>
@@ -5488,7 +5488,7 @@
         <v>91</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>6</v>
@@ -5509,7 +5509,7 @@
         <v>92</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>6</v>
@@ -5551,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,7 +5880,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>7</v>
@@ -5894,7 +5894,7 @@
         <v>102</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>7</v>
@@ -5908,7 +5908,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>7</v>
@@ -5922,7 +5922,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>7</v>
@@ -5936,7 +5936,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>7</v>
@@ -5950,7 +5950,7 @@
         <v>71</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>7</v>
@@ -5964,7 +5964,7 @@
         <v>103</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>7</v>
@@ -5978,7 +5978,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>7</v>
@@ -5992,7 +5992,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>7</v>
@@ -6230,7 +6230,7 @@
         <v>71</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>7</v>
@@ -6244,7 +6244,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>7</v>
@@ -6258,7 +6258,7 @@
         <v>71</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>7</v>
@@ -6272,7 +6272,7 @@
         <v>113</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>7</v>
@@ -6286,7 +6286,7 @@
         <v>73</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>7</v>
@@ -6300,7 +6300,7 @@
         <v>116</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>7</v>
@@ -6314,7 +6314,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>7</v>
@@ -6328,7 +6328,7 @@
         <v>68</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>7</v>
@@ -6342,7 +6342,7 @@
         <v>71</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>7</v>
@@ -6356,7 +6356,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>7</v>
@@ -6370,7 +6370,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>7</v>
@@ -6384,7 +6384,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>7</v>
@@ -6398,7 +6398,7 @@
         <v>103</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>7</v>
@@ -6566,7 +6566,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>7</v>
@@ -6580,7 +6580,7 @@
         <v>59</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>7</v>
@@ -6594,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>7</v>
@@ -6608,7 +6608,7 @@
         <v>26</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>7</v>
@@ -6622,7 +6622,7 @@
         <v>68</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>7</v>
@@ -6636,7 +6636,7 @@
         <v>69</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>7</v>
@@ -6650,7 +6650,7 @@
         <v>71</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>7</v>
@@ -6664,7 +6664,7 @@
         <v>118</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>7</v>
@@ -6678,7 +6678,7 @@
         <v>111</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>7</v>
@@ -6692,7 +6692,7 @@
         <v>71</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>7</v>
@@ -6706,7 +6706,7 @@
         <v>25</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>7</v>
@@ -6720,7 +6720,7 @@
         <v>103</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>7</v>
@@ -6734,7 +6734,7 @@
         <v>26</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>7</v>
@@ -6748,7 +6748,7 @@
         <v>120</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>7</v>
@@ -6762,7 +6762,7 @@
         <v>121</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>7</v>
@@ -6790,7 +6790,7 @@
         <v>81</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>7</v>
@@ -6804,7 +6804,7 @@
         <v>82</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>7</v>
@@ -6818,7 +6818,7 @@
         <v>83</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>7</v>
@@ -6832,7 +6832,7 @@
         <v>85</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>7</v>
@@ -6846,7 +6846,7 @@
         <v>86</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>7</v>
@@ -6860,7 +6860,7 @@
         <v>110</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>7</v>
@@ -6874,7 +6874,7 @@
         <v>87</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>7</v>
@@ -6888,7 +6888,7 @@
         <v>88</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>7</v>
@@ -6902,7 +6902,7 @@
         <v>122</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>7</v>
@@ -6916,7 +6916,7 @@
         <v>123</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>7</v>
@@ -6930,7 +6930,7 @@
         <v>124</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>7</v>
@@ -6944,7 +6944,7 @@
         <v>92</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>7</v>
@@ -6958,7 +6958,7 @@
         <v>125</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>7</v>
@@ -6972,7 +6972,7 @@
         <v>115</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>7</v>
@@ -6986,7 +6986,7 @@
         <v>71</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>7</v>
@@ -7000,7 +7000,7 @@
         <v>125</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>7</v>
@@ -7014,7 +7014,7 @@
         <v>127</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>7</v>
@@ -7028,7 +7028,7 @@
         <v>81</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>7</v>
@@ -7042,7 +7042,7 @@
         <v>129</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>7</v>
@@ -7056,7 +7056,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>7</v>
@@ -7070,7 +7070,7 @@
         <v>122</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>7</v>
@@ -7084,7 +7084,7 @@
         <v>92</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>7</v>
@@ -7098,7 +7098,7 @@
         <v>125</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>7</v>
@@ -7112,7 +7112,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>7</v>
@@ -7132,7 +7132,7 @@
         <v>71</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>7</v>
@@ -7153,7 +7153,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>7</v>
@@ -7715,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -8304,7 +8304,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8539,7 +8539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09314996-9A54-4162-AB1E-7A610137DE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCD2A8-8E17-454B-ACB5-74F5860F8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="6" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
-    <sheet name="Revisión 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Revisión 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Revisión 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Revisión flujo e inserts" sheetId="6" r:id="rId5"/>
-    <sheet name="Primera revisión SELECT's" sheetId="8" r:id="rId6"/>
-    <sheet name="Segunda revisión SELECT's" sheetId="11" r:id="rId7"/>
-    <sheet name="Primera revisión UPDATE's" sheetId="12" r:id="rId8"/>
-    <sheet name="UPDATE'S 2 y BAJAS 1" sheetId="13" r:id="rId9"/>
+    <sheet name="Revisión 2 y 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Revisión 4" sheetId="4" r:id="rId3"/>
+    <sheet name="Revisión flujo e inserts" sheetId="6" r:id="rId4"/>
+    <sheet name="Primera revisión SELECT's" sheetId="8" r:id="rId5"/>
+    <sheet name="Segunda revisión SELECT's" sheetId="11" r:id="rId6"/>
+    <sheet name="Primera revisión UPDATE's" sheetId="12" r:id="rId7"/>
+    <sheet name="UPDATE'S 2 y BAJAS 1" sheetId="13" r:id="rId8"/>
+    <sheet name="Revisión final" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1918" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="202">
   <si>
     <t>Detalle</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Calificación al momento:</t>
   </si>
   <si>
-    <t>Próxima revisión: entre 30 de abril y 3 de mayo</t>
-  </si>
-  <si>
     <t>Proyecto</t>
   </si>
   <si>
@@ -636,6 +633,18 @@
   </si>
   <si>
     <t>Aún no da de baja.</t>
+  </si>
+  <si>
+    <t>No puedo modificar el teléfono.</t>
+  </si>
+  <si>
+    <t>No está protegido contra campos vacíos (dejo a los empleados sin nombre).</t>
+  </si>
+  <si>
+    <t>No está protegido contra campos vacíos (dejo a los proveedores sin nombre).</t>
+  </si>
+  <si>
+    <t>En AGREGAR como en MODIFICAR, el combobox de tipo deben estar tipo oración y tiene errores de ortografía en ALCOHÓLICAS.</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1081,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1585,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D380BA2-8FD3-444F-9CB4-D1D45589F1D9}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -2298,10 +2347,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jxdN8lZFYDmMmcbLE6f9zrvR2L96b43foPsTvAL8bFvxJoWHgzuJcO/RrwrDfWaVqbpghwPniA9mbd8Om/Llcw==" saltValue="NX6SyP2gzFG9+e/Jyr77Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2319,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2679,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2693,7 +2742,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2931,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3099,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3113,7 +3162,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3163,7 +3212,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
@@ -3239,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3253,7 +3302,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3267,7 +3316,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3505,7 +3554,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3575,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3603,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3617,7 +3666,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3631,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3687,7 +3736,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,7 +3764,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3729,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3743,7 +3792,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,7 +3806,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,7 +3834,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -3799,7 +3848,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,7 +3862,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3882,7 +3931,7 @@
       </c>
       <c r="G114">
         <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3903,7 +3952,7 @@
       </c>
       <c r="G115" s="23">
         <f>G114/G113*10</f>
-        <v>7.4074074074074066</v>
+        <v>9.5370370370370381</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3912,12 +3961,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bHiQ7UrsT9VzG8majBa0hp+qz+IVlqu3IdKHNAe90Guq8kvORwJ+57TvuMbs2Bhd1jIIvH9khRoBYxRD26N4pg==" saltValue="ewTi/RzmymYBNkpfGLtFaA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qst0js83Pjg2ruh3tG3yJJi0lT98xhRO8y9RKGQ6XORtPh541qi0J8KewbG9IjIgbdupWsiUTQclgYW/oAlXXA==" saltValue="0RnpTP4R/vQFvpVYJU3PKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3932,11 +3981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C58912-6208-4C9C-BB18-725D49522639}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,15 +4036,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>6</v>
@@ -4023,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -4032,12 +4081,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
@@ -4046,12 +4095,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
@@ -4062,10 +4111,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
@@ -4079,7 +4128,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
@@ -4088,12 +4137,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -4102,12 +4151,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -4116,12 +4165,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>6</v>
@@ -4130,12 +4179,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>6</v>
@@ -4149,7 +4198,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>6</v>
@@ -4163,7 +4212,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>6</v>
@@ -4172,12 +4221,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>70</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -4188,10 +4237,10 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -4200,12 +4249,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -4216,24 +4265,24 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>6</v>
@@ -4244,21 +4293,21 @@
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>69</v>
@@ -4272,52 +4321,52 @@
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>6</v>
@@ -4326,12 +4375,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>6</v>
@@ -4342,10 +4391,10 @@
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>6</v>
@@ -4356,24 +4405,24 @@
     </row>
     <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>6</v>
@@ -4384,10 +4433,10 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>6</v>
@@ -4396,12 +4445,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>6</v>
@@ -4410,40 +4459,40 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>6</v>
@@ -4454,10 +4503,10 @@
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>6</v>
@@ -4468,10 +4517,10 @@
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>6</v>
@@ -4482,10 +4531,10 @@
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>6</v>
@@ -4496,10 +4545,10 @@
     </row>
     <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>6</v>
@@ -4510,10 +4559,10 @@
     </row>
     <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>6</v>
@@ -4524,10 +4573,10 @@
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>6</v>
@@ -4538,24 +4587,24 @@
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>6</v>
@@ -4569,7 +4618,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>6</v>
@@ -4583,7 +4632,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>6</v>
@@ -4597,7 +4646,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>6</v>
@@ -4606,12 +4655,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>6</v>
@@ -4622,10 +4671,10 @@
     </row>
     <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>6</v>
@@ -4634,12 +4683,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>6</v>
@@ -4650,10 +4699,10 @@
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>6</v>
@@ -4664,10 +4713,10 @@
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>6</v>
@@ -4678,10 +4727,10 @@
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>6</v>
@@ -4692,10 +4741,10 @@
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>6</v>
@@ -4704,12 +4753,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>6</v>
@@ -4720,7 +4769,7 @@
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>71</v>
@@ -4729,15 +4778,15 @@
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>6</v>
@@ -4746,12 +4795,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>6</v>
@@ -4762,10 +4811,10 @@
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>6</v>
@@ -4776,24 +4825,24 @@
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>178</v>
+        <v>102</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>6</v>
@@ -4804,10 +4853,10 @@
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>6</v>
@@ -4818,10 +4867,10 @@
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>6</v>
@@ -4830,12 +4879,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>6</v>
@@ -4846,52 +4895,52 @@
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>6</v>
@@ -4902,10 +4951,10 @@
     </row>
     <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>6</v>
@@ -4916,10 +4965,10 @@
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>6</v>
@@ -4930,10 +4979,10 @@
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>6</v>
@@ -4942,12 +4991,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>6</v>
@@ -4958,10 +5007,10 @@
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>6</v>
@@ -4972,10 +5021,10 @@
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>6</v>
@@ -4986,10 +5035,10 @@
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>6</v>
@@ -5000,24 +5049,24 @@
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>6</v>
@@ -5026,12 +5075,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>6</v>
@@ -5042,10 +5091,10 @@
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>6</v>
@@ -5056,10 +5105,10 @@
     </row>
     <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>6</v>
@@ -5068,12 +5117,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>6</v>
@@ -5084,10 +5133,10 @@
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>6</v>
@@ -5098,10 +5147,10 @@
     </row>
     <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>6</v>
@@ -5110,26 +5159,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>6</v>
@@ -5140,10 +5189,10 @@
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>6</v>
@@ -5152,12 +5201,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>6</v>
@@ -5166,12 +5215,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>6</v>
@@ -5180,82 +5229,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>6</v>
@@ -5264,12 +5313,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>6</v>
@@ -5278,12 +5327,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>6</v>
@@ -5297,1629 +5346,13 @@
         <v>62</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>93</v>
-      </c>
-      <c r="G113">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>94</v>
-      </c>
-      <c r="G114">
-        <f>COUNTIF(D8:D115,"Sí")</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" t="s">
-        <v>95</v>
-      </c>
-      <c r="G115" s="23">
-        <f>G114/G113*10</f>
-        <v>7.4074074074074066</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0Wz4hIFkt+NQrmxYomqgOt1dkxyTCddak2Qb+McV0BH6a8woCOfzwkguBKanYemX+FfDvAR1CKpvVf1uFJJ5kA==" saltValue="V4j98ZketPxBxAvrYeuqXw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
-      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D115" xr:uid="{8934C7B7-26A8-4FD7-8936-9C46AE1085D3}">
-      <formula1>$K$7:$K$8</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
-  <dimension ref="A1:K117"/>
-  <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6927,13 +5360,13 @@
         <v>62</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6955,13 +5388,13 @@
         <v>90</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -6969,18 +5402,18 @@
         <v>90</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>71</v>
@@ -6989,21 +5422,21 @@
         <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7011,18 +5444,18 @@
         <v>14</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>81</v>
@@ -7031,54 +5464,54 @@
         <v>6</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="C110" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>92</v>
@@ -7087,35 +5520,35 @@
         <v>6</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F115" t="s">
         <v>93</v>
@@ -7126,7 +5559,7 @@
     </row>
     <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>71</v>
@@ -7135,44 +5568,44 @@
         <v>6</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F116" t="s">
         <v>94</v>
       </c>
       <c r="G116">
         <f>COUNTIF(D8:D117,"Sí")</f>
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F117" t="s">
         <v>95</v>
       </c>
       <c r="G117" s="23">
         <f>G116/G115*10</f>
-        <v>3.6036036036036032</v>
+        <v>9.5495495495495497</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WEWmR1PJpcqcNqmcqm/v3warN0+juEoOyd+f0GmgBsGQB7+NJtYp7gbhC0KFbOyLcRm0cihyibP3o/zc7Vcxng==" saltValue="yYoTnG4MXjKoSMByuEaMEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LaVGHXEzUpRrDHLQDdbqXqfFzbGY0Zzsywb/EW2yDjFfkcCEZuyieVwhbERSeoVddOfAe1h0tUorg8wPQZtPDg==" saltValue="Hp/NxiPXDMzqzfFBXzlizA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7186,12 +5619,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EFBF99-E757-4852-8994-61562255AD08}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7247,10 +5680,10 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>6</v>
@@ -7264,10 +5697,10 @@
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
@@ -7278,10 +5711,10 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -7292,10 +5725,10 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
@@ -7306,10 +5739,10 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
@@ -7320,10 +5753,10 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
@@ -7334,10 +5767,10 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
@@ -7348,10 +5781,10 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -7362,10 +5795,10 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -7376,10 +5809,10 @@
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>6</v>
@@ -7390,10 +5823,10 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>6</v>
@@ -7404,10 +5837,10 @@
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>6</v>
@@ -7418,10 +5851,10 @@
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>6</v>
@@ -7432,10 +5865,10 @@
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -7446,10 +5879,10 @@
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -7460,10 +5893,10 @@
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -7474,10 +5907,10 @@
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>6</v>
@@ -7491,7 +5924,7 @@
         <v>62</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>6</v>
@@ -7505,7 +5938,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>6</v>
@@ -7519,7 +5952,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>6</v>
@@ -7533,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>6</v>
@@ -7547,7 +5980,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>6</v>
@@ -7561,7 +5994,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>6</v>
@@ -7575,21 +6008,21 @@
         <v>90</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>6</v>
@@ -7600,10 +6033,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>6</v>
@@ -7614,10 +6047,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>6</v>
@@ -7632,21 +6065,21 @@
         <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J34" s="25">
         <v>0.4</v>
       </c>
       <c r="L34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>6</v>
@@ -7655,27 +6088,27 @@
         <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" s="25">
         <v>0.4</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J35" s="25">
         <v>0.4</v>
       </c>
       <c r="L35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>6</v>
@@ -7692,12 +6125,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5TS7J2NNCxkast+QjioCY8S0YrOjX3nvV1zTQJWh9VOCWmnmCUpZFJQNhv9VPrja/7XOtnoydgsAza2NRFaqVQ==" saltValue="nQ1UDSLhz0wDOZzJSjvwTw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aeSO/s8AsikvcJH8OjzdNVXyhcxYlQoo0F59bcR4aojsqusUKLjReS/F/fpBHep0ClRtlFyLkpP//0WKfni14w==" saltValue="DDjZyHB6hfwlm7+bv6v/Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7711,11 +6144,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46F3F4-E61A-45DB-B136-E6C78C386E24}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -7772,10 +6205,10 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>6</v>
@@ -7789,10 +6222,10 @@
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
@@ -7806,7 +6239,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -7817,10 +6250,10 @@
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
@@ -7831,10 +6264,10 @@
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
@@ -7845,10 +6278,10 @@
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
@@ -7859,10 +6292,10 @@
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
@@ -7873,10 +6306,10 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
@@ -7887,10 +6320,10 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -7901,10 +6334,10 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>6</v>
@@ -7918,7 +6351,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>6</v>
@@ -7929,10 +6362,10 @@
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>6</v>
@@ -7943,10 +6376,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>6</v>
@@ -7957,10 +6390,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>6</v>
@@ -7971,10 +6404,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>6</v>
@@ -7985,10 +6418,10 @@
     </row>
     <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>6</v>
@@ -7999,10 +6432,10 @@
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>6</v>
@@ -8013,10 +6446,10 @@
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>6</v>
@@ -8027,10 +6460,10 @@
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>6</v>
@@ -8041,10 +6474,10 @@
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>6</v>
@@ -8058,7 +6491,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>6</v>
@@ -8072,7 +6505,7 @@
         <v>90</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>6</v>
@@ -8087,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J29" s="25">
         <v>0.1</v>
@@ -8098,7 +6531,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>6</v>
@@ -8107,13 +6540,13 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="25">
         <v>0.1</v>
@@ -8121,10 +6554,10 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>6</v>
@@ -8142,10 +6575,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="N4m4BXn3B6Aj19db/JcbC+LRxOVMEQTUKwHdCPZs5VNBvv0ELnn5yNH5sitt44LLY1B8rpfLzSSWD/DYv6P6TA==" saltValue="lBdbaIRVTUtZRxrWerIamw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D31">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8159,12 +6592,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C18EAF1-57C0-473F-9CD8-DCB21970B76E}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8219,10 +6652,10 @@
       </c>
       <c r="G7">
         <f>COUNTIFS(D8:D9,"No")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="25">
         <v>0.2</v>
@@ -8233,25 +6666,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="1" t="s">
@@ -8260,32 +6693,32 @@
     </row>
     <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="C9" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>95</v>
       </c>
       <c r="G9" s="29">
         <f>(2.5-G7)/100</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BnyTXUc54FW7z8XcPUsBiEM+dvjrbqNjuO5zb7ZYoCIQ20vixVD7qTN73xPpl8w634p44MT741pemME/agy37Q==" saltValue="Oif76Z1zL7OrgUnrY2qfqg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="YroWO7K9UUAmRUv4bbmupEfoUxQwCCCqYS3VrHW/DafNyBHsR76Jc29054qGlxAzgB9KCayHn986y3sxeLuJrQ==" saltValue="6yZLYTCWzr3/goePqjeMTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D9">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8299,12 +6732,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6016A9-0F9B-4A93-B168-D92AD0257E27}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8363,13 +6796,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>7</v>
@@ -8380,13 +6813,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8394,13 +6827,13 @@
         <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8408,13 +6841,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8422,13 +6855,13 @@
         <v>49</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8436,13 +6869,13 @@
         <v>49</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8450,13 +6883,13 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>93</v>
@@ -8465,7 +6898,7 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="25">
         <v>0.2</v>
@@ -8476,37 +6909,37 @@
         <v>32</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>190</v>
-      </c>
       <c r="C16" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -8516,12 +6949,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="H23OwuYYC4hdCyHe8FxQmy8BIZe0iuciMqZIQ8CgpZpb7pkOpSswEND4sAsAdK/Id5kP+JxdbQxjrAvZYQVmNA==" saltValue="hg/OgefFSpWssxZWJgkFyQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eeEge27M3KmWrblBlL+gHeL2wpWWVQc+jSf8oubvmXeUlVHvk6MaKFQ0yYh3uJsxwAkzbvXRTB5ZOBjGSadC2g==" saltValue="r+A2WgGlgOxaAxMLSWTY9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8535,12 +6968,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,10 +7029,10 @@
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>192</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>6</v>
@@ -8613,24 +7046,24 @@
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>6</v>
@@ -8641,10 +7074,10 @@
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>6</v>
@@ -8658,13 +7091,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8672,13 +7105,13 @@
         <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8686,13 +7119,13 @@
         <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -8700,48 +7133,48 @@
         <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>93</v>
       </c>
       <c r="G17">
         <f>COUNTIF(D8:D19,"No")</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J17" s="25"/>
     </row>
@@ -8750,16 +7183,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="29">
         <v>2.5000000000000001E-2</v>
@@ -8771,13 +7204,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>95</v>
@@ -8787,20 +7220,19 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="w73vBHj3WvXgOF0cr129EfSfUzBMrkROu+P8ihNiJTRDHthtAz27U3J/iIUMPBdIIlriSsxta3V6N236NH2xmA==" saltValue="7LfU3gJmCKSooh9kMeznSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D19">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8812,4 +7244,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E7EB3-08F3-4F99-A29B-E65EE4CECE96}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="27"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(D8:D12,"No")</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1CctW1TMZHxtc83h26P6dpfQhrCHNhuQrIycFelZvqWURLWkNp1jJQfQ+VXLjWLgNKHBz5dc38d8q5KtIqX9Lw==" saltValue="xDy+DD/iiG3LH/MYtWza+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="C10:D12">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D9">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sí">
+      <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:D12" xr:uid="{4E8EF542-C278-4382-98F2-D9D1FAFB4F33}">
+      <formula1>$K$7:$K$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/revisiones/Revisiones.xlsx
+++ b/revisiones/Revisiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron\Documents\NetBeansProjects\GituHub\TheGroceries\Revisiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lizbe\Documents\TheGroceries\revisiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCD2A8-8E17-454B-ACB5-74F5860F8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E35198-509C-4D13-A0B2-B48C42F1B040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="8" xr2:uid="{D3B94AEF-2A3F-4005-A373-7D51D4B82D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Revisión 1 - COMPLETA" sheetId="1" r:id="rId1"/>
@@ -1081,27 +1081,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2347,10 +2327,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jxdN8lZFYDmMmcbLE6f9zrvR2L96b43foPsTvAL8bFvxJoWHgzuJcO/RrwrDfWaVqbpghwPniA9mbd8Om/Llcw==" saltValue="NX6SyP2gzFG9+e/Jyr77Fw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D52">
-    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2368,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537904D1-DC81-4222-9809-557BF22DCA7B}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,10 +3943,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Qst0js83Pjg2ruh3tG3yJJi0lT98xhRO8y9RKGQ6XORtPh541qi0J8KewbG9IjIgbdupWsiUTQclgYW/oAlXXA==" saltValue="0RnpTP4R/vQFvpVYJU3PKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D115">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3984,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD61CFE2-A61B-4156-BD0E-7D35F9B0B4F1}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,7 +4024,7 @@
         <v>97</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>6</v>
@@ -5602,10 +5582,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="LaVGHXEzUpRrDHLQDdbqXqfFzbGY0Zzsywb/EW2yDjFfkcCEZuyieVwhbERSeoVddOfAe1h0tUorg8wPQZtPDg==" saltValue="Hp/NxiPXDMzqzfFBXzlizA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D117">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6127,10 +6107,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="aeSO/s8AsikvcJH8OjzdNVXyhcxYlQoo0F59bcR4aojsqusUKLjReS/F/fpBHep0ClRtlFyLkpP//0WKfni14w==" saltValue="DDjZyHB6hfwlm7+bv6v/Yw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D36">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6575,10 +6555,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="N4m4BXn3B6Aj19db/JcbC+LRxOVMEQTUKwHdCPZs5VNBvv0ELnn5yNH5sitt44LLY1B8rpfLzSSWD/DYv6P6TA==" saltValue="lBdbaIRVTUtZRxrWerIamw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D31">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6715,10 +6695,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="YroWO7K9UUAmRUv4bbmupEfoUxQwCCCqYS3VrHW/DafNyBHsR76Jc29054qGlxAzgB9KCayHn986y3sxeLuJrQ==" saltValue="6yZLYTCWzr3/goePqjeMTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D9">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6951,10 +6931,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eeEge27M3KmWrblBlL+gHeL2wpWWVQc+jSf8oubvmXeUlVHvk6MaKFQ0yYh3uJsxwAkzbvXRTB5ZOBjGSadC2g==" saltValue="r+A2WgGlgOxaAxMLSWTY9Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6972,7 +6952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B34E69A-292B-4DC2-9EEB-C9AFD6EFBE5D}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
@@ -7221,18 +7201,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:D16">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D19">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7250,8 +7230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993E7EB3-08F3-4F99-A29B-E65EE4CECE96}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,7 +7293,7 @@
         <v>199</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>7</v>
@@ -7330,7 +7310,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>7</v>
@@ -7344,7 +7324,7 @@
         <v>198</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>7</v>
@@ -7358,7 +7338,7 @@
         <v>200</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>7</v>
@@ -7373,7 +7353,7 @@
         <v>201</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>7</v>
@@ -7389,10 +7369,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1CctW1TMZHxtc83h26P6dpfQhrCHNhuQrIycFelZvqWURLWkNp1jJQfQ+VXLjWLgNKHBz5dc38d8q5KtIqX9Lw==" saltValue="xDy+DD/iiG3LH/MYtWza+A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C10:D12">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sí">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Sí">
       <formula>NOT(ISERROR(SEARCH("Sí",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
